--- a/World-happiness/Dataset/WorldHappiness_pivot_Tables.xlsx
+++ b/World-happiness/Dataset/WorldHappiness_pivot_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucyp\Desktop\DOUGLAS\PORFOLIO\Projects\casestudy\Happy nations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B599AAAE-96D6-4008-A958-EA3ADF2D4647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D521E6-7BF0-4020-98C8-5450EAD37DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B5AB7077-9820-41E7-A91A-8C80E9434D71}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{B5AB7077-9820-41E7-A91A-8C80E9434D71}"/>
   </bookViews>
   <sheets>
     <sheet name="WorldHappiness_pivot_Tables" sheetId="1" r:id="rId1"/>
@@ -1128,20 +1128,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1154,6 +1147,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1200,7 +1199,131 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="120">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -28483,34 +28606,34 @@
     <dataField name="Rank by years for individual country" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="17">
-    <format dxfId="52">
+    <format dxfId="72">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="73">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="74">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="65">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="64">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="63">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="62">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="61">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="60">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="10">
@@ -28528,19 +28651,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="58">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="57">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="56">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="55">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="10">
@@ -28558,7 +28681,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="21">
@@ -28587,7 +28710,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="9">
@@ -29384,6 +29507,86 @@
   <dataFields count="1">
     <dataField name="Avg of Happiness score" fld="4" subtotal="average" baseField="3" baseItem="10" numFmtId="2"/>
   </dataFields>
+  <formats count="11">
+    <format dxfId="19">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="A1:I1" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="10">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="10">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="10">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <conditionalFormats count="1">
     <conditionalFormat priority="1">
       <pivotAreas count="1">
@@ -30150,8 +30353,8 @@
     <dataField name="Avg of Freedom to make life choices" fld="10" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
     <dataField name="Average of Perceptions of corruption" fld="12" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
-  <formats count="6">
-    <format dxfId="99">
+  <formats count="15">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4">
@@ -30163,7 +30366,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4">
@@ -30175,10 +30378,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="117">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="101">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -30187,7 +30390,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="100">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -30196,11 +30399,83 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="99">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
             <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="10">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -96497,7 +96772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08800AE-45BA-4A84-BBA8-98BB38C87618}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -96520,7 +96795,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
@@ -96528,367 +96803,367 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>2015</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>2016</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>2017</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>2018</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>2019</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>2020</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="5">
         <v>2021</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="5">
         <v>2022</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="5">
         <v>2023</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="5">
         <v>2024</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>145</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>140</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>129</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>120</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>109</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>106</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>114</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>114</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>115</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>74</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>79</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>81</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>96</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>92</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>84</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>82</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>87</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>84</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>99</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>102</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>110</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>105</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>104</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>100</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>95</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>89</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>61</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>47</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>42</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>35</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>80</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>82</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>81</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>70</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>55</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>129</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>119</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>114</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>130</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>131</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>133</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>126</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>126</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>117</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>90</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>82</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>72</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>71</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>69</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>52</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>61</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>60</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>76</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>24</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>22</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>26</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>34</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>34</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>31</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>32</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>27</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>25</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>34</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>33</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>32</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>46</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>52</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>54</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>54</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>61</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>60</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>75</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>96</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>94</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>95</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>94</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>83</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>79</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>77</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>65</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>54</v>
       </c>
     </row>
@@ -96914,7 +97189,7 @@
   <dimension ref="A3:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -96929,45 +97204,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>2015</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>2016</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>2017</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>2018</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>2019</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>2020</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>2021</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>2022</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>2023</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <v>2024</v>
       </c>
       <c r="L4" t="s">
@@ -96975,7 +97259,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="1">
@@ -97011,7 +97295,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="1">
@@ -97045,7 +97329,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="1">
@@ -97081,7 +97365,7 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1">
@@ -97117,7 +97401,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1">
@@ -97153,7 +97437,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1">
@@ -97189,7 +97473,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B11" s="1">
@@ -97225,7 +97509,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1">
@@ -97261,7 +97545,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B13" s="1">
@@ -97297,7 +97581,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1">
@@ -97333,7 +97617,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B15" s="1"/>
@@ -97369,8 +97653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBE5CC8-87EA-415D-AF59-4939F1BAB994}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -97656,7 +97940,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
@@ -97664,27 +97948,27 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="62" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="8">
         <v>2015</v>
       </c>
       <c r="B4" s="1">
@@ -97699,12 +97983,12 @@
       <c r="E4" s="1">
         <v>0.59</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="8">
         <v>2016</v>
       </c>
       <c r="B5" s="1">
@@ -97719,12 +98003,12 @@
       <c r="E5" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="8">
         <v>2017</v>
       </c>
       <c r="B6" s="1">
@@ -97739,12 +98023,12 @@
       <c r="E6" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>0.09</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7" s="8">
         <v>2018</v>
       </c>
       <c r="B7" s="1">
@@ -97759,12 +98043,12 @@
       <c r="E7" s="1">
         <v>0.62</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="8">
         <v>2019</v>
       </c>
       <c r="B8" s="1">
@@ -97779,12 +98063,12 @@
       <c r="E8" s="1">
         <v>0.54</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="A9" s="8">
         <v>2020</v>
       </c>
       <c r="B9" s="1">
@@ -97799,12 +98083,12 @@
       <c r="E9" s="1">
         <v>0.65</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>0.09</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="A10" s="8">
         <v>2021</v>
       </c>
       <c r="B10" s="1">
@@ -97819,12 +98103,12 @@
       <c r="E10" s="1">
         <v>0.67900000000000005</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="8">
         <v>2022</v>
       </c>
       <c r="B11" s="1">
@@ -97839,12 +98123,12 @@
       <c r="E11" s="1">
         <v>0.71</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <v>0.11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="A12" s="8">
         <v>2023</v>
       </c>
       <c r="B12" s="1">
@@ -97859,12 +98143,12 @@
       <c r="E12" s="1">
         <v>0.74099999999999999</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <v>0.122</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="A13" s="8">
         <v>2024</v>
       </c>
       <c r="B13" s="1">
@@ -97879,7 +98163,7 @@
       <c r="E13" s="1">
         <v>0.84</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <v>0.16</v>
       </c>
     </row>
